--- a/tvd_s8.xlsx
+++ b/tvd_s8.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R6229a098433e45ed"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R6601f3ec93b44b59"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -321,14 +321,14 @@
     <x:row r="6">
       <x:c r="A6" s="1" t="inlineStr">
         <x:is>
-          <x:t>Audit Number: 1005</x:t>
+          <x:t>Audit Number: 1178</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="7">
       <x:c r="A7" s="2" t="inlineStr">
         <x:is>
-          <x:t>Date: 5/3/2020 Time: 12:21 PM</x:t>
+          <x:t>Date: 5/3/2020 Time: 1:15 PM</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -424,21 +424,21 @@
     <x:row r="18">
       <x:c r="A18" s="11" t="inlineStr">
         <x:is>
-          <x:t>Scenario (Time varying leak) : SM</x:t>
+          <x:t>Scenario (Time varying leak) : SM-EOBO</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="19">
       <x:c r="A19" s="12" t="inlineStr">
         <x:is>
-          <x:t>H2495_FRA\H2495\S8\SM</x:t>
+          <x:t>H2495_FRA\H2495\S8\SM\SM-EOBO</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="20">
       <x:c r="A20" s="13" t="inlineStr">
         <x:is>
-          <x:t>SM</x:t>
+          <x:t>SM-EOBO</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -9964,21 +9964,21 @@
     <x:row r="319">
       <x:c r="A319" s="16" t="inlineStr">
         <x:is>
-          <x:t>Scenario (Time varying leak) : ME</x:t>
+          <x:t>Scenario (Time varying leak) : ME-EOBO</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="320">
       <x:c r="A320" s="17" t="inlineStr">
         <x:is>
-          <x:t>H2495_FRA\H2495\S8\ME</x:t>
+          <x:t>H2495_FRA\H2495\S8\ME\ME-EOBO</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="321">
       <x:c r="A321" s="18" t="inlineStr">
         <x:is>
-          <x:t>ME</x:t>
+          <x:t>ME-EOBO</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -18896,21 +18896,21 @@
     <x:row r="601">
       <x:c r="A601" s="20" t="inlineStr">
         <x:is>
-          <x:t>Scenario (Time varying leak) : MA</x:t>
+          <x:t>Scenario (Time varying leak) : MA-EOBO</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="602">
       <x:c r="A602" s="21" t="inlineStr">
         <x:is>
-          <x:t>H2495_FRA\H2495\S8\MA</x:t>
+          <x:t>H2495_FRA\H2495\S8\MA\MA-EOBO</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="603">
       <x:c r="A603" s="22" t="inlineStr">
         <x:is>
-          <x:t>MA</x:t>
+          <x:t>MA-EOBO</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -26644,21 +26644,21 @@
     <x:row r="846">
       <x:c r="A846" s="24" t="inlineStr">
         <x:is>
-          <x:t>Scenario (Time varying leak) : LA</x:t>
+          <x:t>Scenario (Time varying leak) : LA-EOBO</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="847">
       <x:c r="A847" s="25" t="inlineStr">
         <x:is>
-          <x:t>H2495_FRA\H2495\S8\LA</x:t>
+          <x:t>H2495_FRA\H2495\S8\LA\LA-EOBO</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="848">
       <x:c r="A848" s="26" t="inlineStr">
         <x:is>
-          <x:t>LA</x:t>
+          <x:t>LA-EOBO</x:t>
         </x:is>
       </x:c>
     </x:row>
